--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_9_8.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_9_8.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_24</t>
+          <t>model_9_8_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7603881190453319</v>
+        <v>0.2223819225481615</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5275142148680789</v>
+        <v>0.06626570326100178</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5951161565899574</v>
+        <v>0.4048390793495529</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.322806163296071</v>
+        <v>0.2789542991640961</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2651797235012054</v>
+        <v>0.8605940937995911</v>
       </c>
       <c r="G2" t="n">
-        <v>1.359853506088257</v>
+        <v>0.7609127759933472</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08870752155780792</v>
+        <v>0.8247852325439453</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7616680860519409</v>
+        <v>0.7909711599349976</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_23</t>
+          <t>model_9_8_4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7610288535495916</v>
+        <v>0.2316744789872431</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5156171907201426</v>
+        <v>0.008171567671399038</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6080819045510584</v>
+        <v>0.2988571406073885</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3107449146764312</v>
+        <v>0.1931022960817259</v>
       </c>
       <c r="F3" t="n">
-        <v>0.264470636844635</v>
+        <v>0.8503099083900452</v>
       </c>
       <c r="G3" t="n">
-        <v>1.349262356758118</v>
+        <v>0.8082544803619385</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08586680889129639</v>
+        <v>0.9716569781303406</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7547232508659363</v>
+        <v>0.8851489424705505</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_22</t>
+          <t>model_9_8_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7614956735611929</v>
+        <v>0.2359974050771871</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.504394542361597</v>
+        <v>0.08090093816264099</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6205324754578925</v>
+        <v>0.3829755291995676</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2993306996064888</v>
+        <v>0.2717126938056112</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2639540135860443</v>
+        <v>0.8455257415771484</v>
       </c>
       <c r="G4" t="n">
-        <v>1.339271426200867</v>
+        <v>0.7489863634109497</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08313895761966705</v>
+        <v>0.8550841808319092</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7481510043144226</v>
+        <v>0.7989150881767273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_21</t>
+          <t>model_9_8_5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7622191902109546</v>
+        <v>0.2546399374424804</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4908664640310514</v>
+        <v>-0.04414961281853746</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6331321341427798</v>
+        <v>0.230951419973387</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2859995269170179</v>
+        <v>0.1321546639209354</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2631532847881317</v>
+        <v>0.8248939514160156</v>
       </c>
       <c r="G5" t="n">
-        <v>1.327228188514709</v>
+        <v>0.8508917689323425</v>
       </c>
       <c r="H5" t="n">
-        <v>0.080378457903862</v>
+        <v>1.065762042999268</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7404749393463135</v>
+        <v>0.9520071744918823</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_20</t>
+          <t>model_9_8_0</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7628002361802989</v>
+        <v>0.2551232231753826</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.477907708499647</v>
+        <v>0.5568190210572888</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6444813472916502</v>
+        <v>0.6115602197430489</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2733593687403961</v>
+        <v>0.5947742636032562</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2625102400779724</v>
+        <v>0.8243590593338013</v>
       </c>
       <c r="G6" t="n">
-        <v>1.315691709518433</v>
+        <v>0.3611541986465454</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07789191603660583</v>
+        <v>0.5383071899414062</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7331967353820801</v>
+        <v>0.4445236325263977</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_19</t>
+          <t>model_9_8_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7636567474339268</v>
+        <v>0.2568461061922943</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4620335369335349</v>
+        <v>0.01146742881494567</v>
       </c>
       <c r="D7" t="n">
-        <v>0.655692782923275</v>
+        <v>0.2026694970289793</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2583602673340306</v>
+        <v>0.1372130529640498</v>
       </c>
       <c r="F7" t="n">
-        <v>0.261562317609787</v>
+        <v>0.8224524259567261</v>
       </c>
       <c r="G7" t="n">
-        <v>1.301559925079346</v>
+        <v>0.8055685758590698</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07543555647134781</v>
+        <v>1.104955673217773</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7245603203773499</v>
+        <v>0.9464582800865173</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_18</t>
+          <t>model_9_8_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7644410369575975</v>
+        <v>0.257867391926151</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4464749313116776</v>
+        <v>0.5115005466103166</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6673543822013845</v>
+        <v>0.5314491638340335</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2435365308134172</v>
+        <v>0.5293284079684425</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2606943249702454</v>
+        <v>0.8213220238685608</v>
       </c>
       <c r="G8" t="n">
-        <v>1.28770911693573</v>
+        <v>0.3980848491191864</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0728805735707283</v>
+        <v>0.6493266224861145</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7160248756408691</v>
+        <v>0.5163163542747498</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_17</t>
+          <t>model_9_8_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7652503558271488</v>
+        <v>0.2752153649436345</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.430173942810675</v>
+        <v>-0.8713669290705961</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6782865036928027</v>
+        <v>0.1696217495939353</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2282369225287944</v>
+        <v>-0.2296343802308165</v>
       </c>
       <c r="F9" t="n">
-        <v>0.259798675775528</v>
+        <v>0.8021230697631836</v>
       </c>
       <c r="G9" t="n">
-        <v>1.273197293281555</v>
+        <v>1.525002479553223</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07048542052507401</v>
+        <v>1.150753855705261</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7072153687477112</v>
+        <v>1.348881721496582</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_16</t>
+          <t>model_9_8_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7658933940939903</v>
+        <v>0.3029353102911027</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.4144956836508169</v>
+        <v>-0.8928619443649282</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6888058660829712</v>
+        <v>0.1843094919213473</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2135196864530267</v>
+        <v>-0.2293592458401568</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2590870261192322</v>
+        <v>0.7714451551437378</v>
       </c>
       <c r="G10" t="n">
-        <v>1.259239912033081</v>
+        <v>1.542518973350525</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06818068772554398</v>
+        <v>1.130399346351624</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6987411975860596</v>
+        <v>1.348580002784729</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_15</t>
+          <t>model_9_8_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7665871025202808</v>
+        <v>0.3653874855614727</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3978715767118532</v>
+        <v>-0.8150426295014475</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6983647420866723</v>
+        <v>0.1862756799056046</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1982012454558999</v>
+        <v>-0.1975848654151884</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2583193182945251</v>
+        <v>0.7023290991783142</v>
       </c>
       <c r="G11" t="n">
-        <v>1.24444043636322</v>
+        <v>1.479102849960327</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06608639657497406</v>
+        <v>1.127674460411072</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6899209022521973</v>
+        <v>1.313724040985107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_14</t>
+          <t>model_9_8_11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7672268892380154</v>
+        <v>0.5649386743985904</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3808106708681516</v>
+        <v>-0.225660683666526</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7081190510763686</v>
+        <v>0.2344611715151383</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1824896156565745</v>
+        <v>0.06285355094172307</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2576112449169159</v>
+        <v>0.4814846813678741</v>
       </c>
       <c r="G12" t="n">
-        <v>1.229252219200134</v>
+        <v>0.9988076090812683</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06394928693771362</v>
+        <v>1.060898184776306</v>
       </c>
       <c r="I12" t="n">
-        <v>0.680874228477478</v>
+        <v>1.028028964996338</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_13</t>
+          <t>model_9_8_10</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7678556311730634</v>
+        <v>0.5736627276849307</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3632195339996853</v>
+        <v>-0.2389452983427303</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7168742456888573</v>
+        <v>0.3128675461929177</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1665231733347505</v>
+        <v>0.1042427120320183</v>
       </c>
       <c r="F13" t="n">
-        <v>0.256915420293808</v>
+        <v>0.4718296825885773</v>
       </c>
       <c r="G13" t="n">
-        <v>1.213591814041138</v>
+        <v>1.009633421897888</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06203108280897141</v>
+        <v>0.9522411227226257</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6716808676719666</v>
+        <v>0.9826259613037109</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_7</t>
+          <t>model_9_8_23</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7680509974579023</v>
+        <v>0.5847975310803115</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.264989223119497</v>
+        <v>0.4503647073527868</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7499890412516959</v>
+        <v>-0.8275392540677455</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.08019085710695473</v>
+        <v>-0.3026169685436364</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2566992342472076</v>
+        <v>0.4595067501068115</v>
       </c>
       <c r="G14" t="n">
-        <v>1.126143336296082</v>
+        <v>0.4479052722454071</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05477584153413773</v>
+        <v>2.532638549804688</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6219708919525146</v>
+        <v>1.428942084312439</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_12</t>
+          <t>model_9_8_19</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7683134120565969</v>
+        <v>0.6526736761829517</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3460419595771143</v>
+        <v>0.3836275347718785</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7254814082394757</v>
+        <v>-0.3556186036833235</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1509216047998845</v>
+        <v>-0.04832030408073118</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2564087808132172</v>
+        <v>0.3843879103660583</v>
       </c>
       <c r="G15" t="n">
-        <v>1.198299765586853</v>
+        <v>0.5022903084754944</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0601453073322773</v>
+        <v>1.878641843795776</v>
       </c>
       <c r="I15" t="n">
-        <v>0.662697434425354</v>
+        <v>1.149984240531921</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_6</t>
+          <t>model_9_8_18</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7685208642928021</v>
+        <v>0.6555001223448682</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2426112854541076</v>
+        <v>0.3672138702737662</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7525725475432978</v>
+        <v>-0.309691421605111</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.06141188058308167</v>
+        <v>-0.02747932256521346</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2561791837215424</v>
+        <v>0.3812598586082458</v>
       </c>
       <c r="G16" t="n">
-        <v>1.106221556663513</v>
+        <v>0.5156659483909607</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05420980975031853</v>
+        <v>1.814995050430298</v>
       </c>
       <c r="I16" t="n">
-        <v>0.611158013343811</v>
+        <v>1.127122044563293</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_9</t>
+          <t>model_9_8_24</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7685558295018228</v>
+        <v>0.6728885420075468</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2977276072314277</v>
+        <v>0.4257184162268742</v>
       </c>
       <c r="D17" t="n">
-        <v>0.745148254080126</v>
+        <v>-0.3293255490828213</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.107853062406666</v>
+        <v>-0.01613690691464242</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2561405003070831</v>
+        <v>0.362015962600708</v>
       </c>
       <c r="G17" t="n">
-        <v>1.155288338661194</v>
+        <v>0.4679898619651794</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05583642423152924</v>
+        <v>1.842204332351685</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6378987431526184</v>
+        <v>1.11467969417572</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_8</t>
+          <t>model_9_8_12</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7685733848972788</v>
+        <v>0.6746146984210148</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2802857773829801</v>
+        <v>0.1058834812189207</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7485040440970998</v>
+        <v>0.1323931440009815</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.09297661190963868</v>
+        <v>0.1325660246179416</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2561210691928864</v>
+        <v>0.3601056635379791</v>
       </c>
       <c r="G18" t="n">
-        <v>1.139760971069336</v>
+        <v>0.7286277413368225</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0551011897623539</v>
+        <v>1.202345967292786</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6293329000473022</v>
+        <v>0.9515559077262878</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_11</t>
+          <t>model_9_8_21</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7686073257958653</v>
+        <v>0.6794223017433868</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3292015083660169</v>
+        <v>0.4227572138375939</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7335263075828768</v>
+        <v>-0.2606515731092771</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1356985602011294</v>
+        <v>0.02352830205014089</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2560835182666779</v>
+        <v>0.3547850251197815</v>
       </c>
       <c r="G19" t="n">
-        <v>1.183307647705078</v>
+        <v>0.4704029858112335</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05838271975517273</v>
+        <v>1.747034788131714</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6539320945739746</v>
+        <v>1.071167945861816</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_5</t>
+          <t>model_9_8_20</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7688305602185709</v>
+        <v>0.6822406578433018</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2189597008133053</v>
+        <v>0.4219520674385736</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7493115929611462</v>
+        <v>-0.2406301958635384</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0426360761444875</v>
+        <v>0.03511591042739626</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2558364570140839</v>
+        <v>0.3516659438610077</v>
       </c>
       <c r="G20" t="n">
-        <v>1.085166096687317</v>
+        <v>0.471059113740921</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05492426455020905</v>
+        <v>1.71928882598877</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6003469824790955</v>
+        <v>1.058456420898438</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_10</t>
+          <t>model_9_8_17</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7688569932790787</v>
+        <v>0.6886499824726686</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.3121121519074905</v>
+        <v>0.2989603520401164</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7402456263600317</v>
+        <v>-0.05980025738479067</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.1205061860095304</v>
+        <v>0.09424255897658806</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2558072209358215</v>
+        <v>0.3445727527141571</v>
       </c>
       <c r="G21" t="n">
-        <v>1.168094158172607</v>
+        <v>0.5712867379188538</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05691055953502655</v>
+        <v>1.468691229820251</v>
       </c>
       <c r="I21" t="n">
-        <v>0.645184338092804</v>
+        <v>0.9935958981513977</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_4</t>
+          <t>model_9_8_14</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7695816321962389</v>
+        <v>0.6913227870086531</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1898205979120082</v>
+        <v>0.06956287927527416</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7440456116315091</v>
+        <v>0.1840857843291588</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.01972720360423241</v>
+        <v>0.1490162570619028</v>
       </c>
       <c r="F22" t="n">
-        <v>0.255005270242691</v>
+        <v>0.3416147232055664</v>
       </c>
       <c r="G22" t="n">
-        <v>1.05922520160675</v>
+        <v>0.7582257986068726</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05607800930738449</v>
+        <v>1.130709409713745</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5871560573577881</v>
+        <v>0.9335103034973145</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_3</t>
+          <t>model_9_8_15</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7708479673879436</v>
+        <v>0.6915562255113754</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1552830270487897</v>
+        <v>0.1300518129848786</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7374245626594904</v>
+        <v>0.09947248755211213</v>
       </c>
       <c r="E23" t="n">
-        <v>0.007357284451814272</v>
+        <v>0.122504295443382</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2536037564277649</v>
+        <v>0.3413564264774323</v>
       </c>
       <c r="G23" t="n">
-        <v>1.028478622436523</v>
+        <v>0.708932638168335</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05752863734960556</v>
+        <v>1.247968077659607</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5715609788894653</v>
+        <v>0.9625933170318604</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_2</t>
+          <t>model_9_8_13</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7725222684530277</v>
+        <v>0.6942178477741929</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1181745040546045</v>
+        <v>0.07468328536297153</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7287549183759208</v>
+        <v>0.2092986151467112</v>
       </c>
       <c r="E24" t="n">
-        <v>0.03617911012156194</v>
+        <v>0.1660177103374717</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2517507970333099</v>
+        <v>0.3384107649326324</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9954431056976318</v>
+        <v>0.7540531754493713</v>
       </c>
       <c r="H24" t="n">
-        <v>0.05942810326814651</v>
+        <v>1.095768928527832</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5549654364585876</v>
+        <v>0.9148601293563843</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_1</t>
+          <t>model_9_8_16</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7749353158267478</v>
+        <v>0.695906255125834</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.07208322130494249</v>
+        <v>0.1990147259565227</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7140412553073859</v>
+        <v>0.07477401466247657</v>
       </c>
       <c r="E25" t="n">
-        <v>0.07127151995731362</v>
+        <v>0.1349403963021975</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2490802854299545</v>
+        <v>0.3365421891212463</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9544108510017395</v>
+        <v>0.6527338027954102</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06265176832675934</v>
+        <v>1.282195568084717</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5347592830657959</v>
+        <v>0.948951244354248</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_9_8_0</t>
+          <t>model_9_8_22</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8258616740548117</v>
+        <v>0.6962350887706158</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4130650984944103</v>
+        <v>0.4298422489783221</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8962309839149456</v>
+        <v>-0.1811771395446669</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5009988697513079</v>
+        <v>0.07356141706243347</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1927198171615601</v>
+        <v>0.3361782431602478</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5225126147270203</v>
+        <v>0.4646292924880981</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02273514494299889</v>
+        <v>1.636897563934326</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2873234450817108</v>
+        <v>1.016282558441162</v>
       </c>
     </row>
   </sheetData>
